--- a/testdata.xlsx
+++ b/testdata.xlsx
@@ -4,14 +4,14 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23310" windowHeight="5115"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23310" windowHeight="5115" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="QA" sheetId="1" r:id="rId1"/>
     <sheet name="Tag Taxonomy" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A10:E24"/>
+  <oleSize ref="A1:K15"/>
 </workbook>
 </file>
 
@@ -831,7 +831,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
@@ -1189,7 +1189,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
